--- a/biology/Biologie cellulaire et moléculaire/Marc_Van_Montagu/Marc_Van_Montagu.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Marc_Van_Montagu/Marc_Van_Montagu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marc Van Montagu, né le 10 novembre 1933 à Gand, est un chercheur belge en biologie moléculaire, qui a travaillé sur les techniques de modification génétique et fait avancer la recherche en matière de transgénèse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a été professeur d'université et directeur du laboratoire de génétique de l'université de Gand. Il a également été directeur scientifique du département de génétique de l'Institut flamand de biotechnologies (VIB). Il a fondé en 1982 avec Jozef Schell la société Plant Genetic Systems Inc.. Il a également participé à la fondation de Cropdesign. Il est actuellement président de l'European Federation of Biotechnology, une ONG qui promeut les biotechnologies.
 </t>
@@ -542,7 +556,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a découvert avec Jozef Schell le gène de transfert entre Agrobacterium et les plantes, ce qui a permis la mise au point de méthodes de transfert de gènes et, in fine, la mise au point des premiers organismes génétiquement modifiés. Il a travaillé par la suite sur de nombreuses variétés de plantes génétiquement modifiées, aux usages variés.
 </t>
@@ -573,11 +589,13 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a reçu de nombreux prix dont le prix japonais en 1998 et le prix mondial de l'alimentation en 2013[1]. Il est correspondant étranger de la Académie nationale des sciences des États-Unis depuis 1986. Il est également membre de diverses académies scientifiques russes, françaises, suédoises ou italiennes. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a reçu de nombreux prix dont le prix japonais en 1998 et le prix mondial de l'alimentation en 2013. Il est correspondant étranger de la Académie nationale des sciences des États-Unis depuis 1986. Il est également membre de diverses académies scientifiques russes, françaises, suédoises ou italiennes. 
 Titulaire de six diplômes de docteur honoris causa, il a été fait baron par le roi Baudouin de Belgique en 1990.
-Il a été 95e au classement De Grootste Belg[2].
+Il a été 95e au classement De Grootste Belg.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Van Larebeke, N., Genetello, C., Schell, J., Schilperoort, R.A., Hermans, A.K., Hernalsteens, J.-P., and Van Montagu, M. Acquisition of tumour-inducing ability by non-oncogenic agrobacteria as a result of plasmid transfer. Nature (London) 255, 742-743 (1975).
 Vaeck, M., Reynaerts, A., Höfte, H., Jansens, S., De Beuckeleer, M., Dean, C., Zabeau, M., Van Montagu, M., and Leemans, J. Transgenic plants protected from insect attack. Nature (London), 328, 33-37 (1987)
